--- a/Supplemental_tables/Table S3.xlsx
+++ b/Supplemental_tables/Table S3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/embree_14_buckeyemail_osu_edu/Documents/Splicing and NMD/Final_Manuscript/Supplemental_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BAAFB59-3090-458E-B3CD-B62FE7D0A1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{3BAAFB59-3090-458E-B3CD-B62FE7D0A1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E392C9A0-66B1-4911-BE1F-0B1B0E427231}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{D951491C-08D9-4596-9D07-A7C2194F9977}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D951491C-08D9-4596-9D07-A7C2194F9977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -4623,10 +4623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF22603-31E5-43FA-ACCF-A9A8A8E2E58B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4648,6 +4651,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4655,9 +4659,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E59F6BC-8CA6-4695-92E1-437E6406D59A}">
   <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="229.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="62.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -15775,6 +15804,8 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>